--- a/2017-2018 data set.xlsx
+++ b/2017-2018 data set.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nana Dom\Desktop\LAST SEM\FINAL YEAR PROJECT\RESEARCH METHODOLOGY\Methodology\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nana Dom\IdeaProjects\A-Comparative-Statistical-Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9630D3C6-118E-4C34-AC57-65D31C59C3A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64AD2830-EFF8-4E75-BEE1-6D3B3BE74839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{4290AEC0-4F1B-450C-BFC0-53A45CD5E5C3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>Socio-Demographic Characteristics by Region, Educational_attainment, Locality and Sex</t>
   </si>
@@ -66,6 +66,12 @@
   </si>
   <si>
     <t>Tertiary</t>
+  </si>
+  <si>
+    <t>Education Level</t>
+  </si>
+  <si>
+    <t>Locality</t>
   </si>
 </sst>
 </file>
@@ -75,7 +81,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,6 +102,14 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -118,17 +132,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,205 +480,216 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80B9AF0-E966-4931-AD5D-B18A0011E4C8}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:B13"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
+      <c r="A1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="E2" s="2">
+        <f>100-$D2</f>
+        <v>32.900000000000006</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="D3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>2</v>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="E3" s="2">
+        <f>100-$D3</f>
+        <v>34.599999999999994</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4"/>
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3"/>
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="2">
-        <v>67.099999999999994</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="E4" s="2">
-        <f>100-$D4</f>
-        <v>32.900000000000006</v>
+        <v>12.7</v>
       </c>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="2">
-        <v>65.400000000000006</v>
+        <v>27.2</v>
       </c>
       <c r="E5" s="2">
-        <f>100-$D5</f>
-        <v>34.599999999999994</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="4"/>
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3"/>
       <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="2">
-        <v>17.100000000000001</v>
+        <v>30.8</v>
       </c>
       <c r="E6" s="2">
-        <v>12.7</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
       <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="2">
-        <v>27.2</v>
+        <v>29.7</v>
       </c>
       <c r="E7" s="2">
-        <v>18.899999999999999</v>
+        <v>13.9</v>
       </c>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4"/>
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3"/>
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="2">
-        <v>30.8</v>
+        <v>10.9</v>
       </c>
       <c r="E8" s="2">
-        <v>16.100000000000001</v>
+        <v>2.8</v>
       </c>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="2">
-        <v>29.7</v>
+        <v>5.9</v>
       </c>
       <c r="E9" s="2">
-        <v>13.9</v>
+        <v>1.4</v>
       </c>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4"/>
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3"/>
       <c r="C10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="2">
-        <v>10.9</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="E10" s="2">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
       <c r="C11" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="2">
-        <v>5.9</v>
+        <v>2.6</v>
       </c>
       <c r="E11" s="2">
-        <v>1.4</v>
+        <v>0.3</v>
       </c>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="2">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="E12" s="2">
-        <v>1.3</v>
-      </c>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="2">
-        <v>2.6</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0.3</v>
-      </c>
       <c r="F13" s="2"/>
     </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="A1:E2"/>
+  <mergeCells count="7">
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B3"/>
     <mergeCell ref="A4:B5"/>
     <mergeCell ref="A6:B7"/>
-    <mergeCell ref="A8:B9"/>
     <mergeCell ref="A10:B11"/>
+    <mergeCell ref="A15:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/2017-2018 data set.xlsx
+++ b/2017-2018 data set.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nana Dom\IdeaProjects\A-Comparative-Statistical-Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64AD2830-EFF8-4E75-BEE1-6D3B3BE74839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB2B9DF-FA2C-4D45-8E35-5610E28C3BE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{4290AEC0-4F1B-450C-BFC0-53A45CD5E5C3}"/>
   </bookViews>
@@ -136,16 +136,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -483,7 +483,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,7 +499,7 @@
         <v>10</v>
       </c>
       <c r="B1" s="5"/>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -510,10 +510,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3"/>
+      <c r="B2" s="4"/>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
@@ -521,13 +521,12 @@
         <v>67.099999999999994</v>
       </c>
       <c r="E2" s="2">
-        <f>100-$D2</f>
-        <v>32.900000000000006</v>
+        <v>32.9</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
@@ -535,15 +534,14 @@
         <v>65.400000000000006</v>
       </c>
       <c r="E3" s="2">
-        <f>100-$D3</f>
-        <v>34.599999999999994</v>
+        <v>34.6</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="4"/>
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
@@ -556,8 +554,8 @@
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
@@ -570,10 +568,10 @@
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="B6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
@@ -586,8 +584,8 @@
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
       <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
@@ -600,10 +598,10 @@
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="4"/>
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -616,8 +614,8 @@
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -630,10 +628,10 @@
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>4</v>
       </c>
@@ -646,8 +644,8 @@
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
       <c r="C11" s="1" t="s">
         <v>5</v>
       </c>
@@ -666,30 +664,30 @@
       <c r="F13" s="2"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="A15:E16"/>
     <mergeCell ref="A8:B9"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B3"/>
     <mergeCell ref="A4:B5"/>
     <mergeCell ref="A6:B7"/>
-    <mergeCell ref="A10:B11"/>
-    <mergeCell ref="A15:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/2017-2018 data set.xlsx
+++ b/2017-2018 data set.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nana Dom\IdeaProjects\A-Comparative-Statistical-Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB2B9DF-FA2C-4D45-8E35-5610E28C3BE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D452EBA8-EEC5-4774-A732-A9F0FD8C2605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{4290AEC0-4F1B-450C-BFC0-53A45CD5E5C3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{4290AEC0-4F1B-450C-BFC0-53A45CD5E5C3}"/>
   </bookViews>
   <sheets>
     <sheet name="17-18" sheetId="1" r:id="rId1"/>
+    <sheet name="2024" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="12">
   <si>
     <t>Socio-Demographic Characteristics by Region, Educational_attainment, Locality and Sex</t>
   </si>
@@ -140,11 +141,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -482,8 +483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80B9AF0-E966-4931-AD5D-B18A0011E4C8}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A1:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,10 +496,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="5"/>
+      <c r="B1" s="6"/>
       <c r="C1" s="3" t="s">
         <v>11</v>
       </c>
@@ -525,7 +526,9 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
+      <c r="A3" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="B3" s="4"/>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -554,7 +557,9 @@
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
+      <c r="A5" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="B5" s="4"/>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -584,7 +589,9 @@
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
+      <c r="A7" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="B7" s="4"/>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -614,7 +621,9 @@
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
+      <c r="A9" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="B9" s="4"/>
       <c r="C9" s="1" t="s">
         <v>5</v>
@@ -644,7 +653,9 @@
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
+      <c r="A11" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="B11" s="4"/>
       <c r="C11" s="1" t="s">
         <v>5</v>
@@ -664,30 +675,265 @@
       <c r="F13" s="2"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A10:B11"/>
+  <mergeCells count="12">
+    <mergeCell ref="A11:B11"/>
     <mergeCell ref="A15:E16"/>
-    <mergeCell ref="A8:B9"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="A6:B7"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEFE09AB-E29C-49E9-978F-7C968194DC44}">
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2">
+        <v>66.976652776630559</v>
+      </c>
+      <c r="E2" s="2">
+        <v>33.023347223369441</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2">
+        <v>65.337094141449697</v>
+      </c>
+      <c r="E3" s="2">
+        <v>34.662905858550289</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2">
+        <v>17.344648538413118</v>
+      </c>
+      <c r="E4" s="2">
+        <v>12.836842869797287</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2">
+        <v>27.291661542802924</v>
+      </c>
+      <c r="E5" s="2">
+        <v>18.957173991742273</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2">
+        <v>31.176532579872458</v>
+      </c>
+      <c r="E6" s="2">
+        <v>16.251342244603251</v>
+      </c>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2">
+        <v>29.832882217582341</v>
+      </c>
+      <c r="E7" s="2">
+        <v>13.998740931839885</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2">
+        <v>10.996721647663996</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2.8337382615903</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2">
+        <v>5.9593016357098998</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1.4197525270895981</v>
+      </c>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="2">
+        <v>7.4587500106809905</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1.1014238473786</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2.2532487453545436</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.28723840787853916</v>
+      </c>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F13" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A15:E16"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/2017-2018 data set.xlsx
+++ b/2017-2018 data set.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nana Dom\IdeaProjects\A-Comparative-Statistical-Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D452EBA8-EEC5-4774-A732-A9F0FD8C2605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{010CB8D2-3B1B-45E4-A892-CD842ACE29DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{4290AEC0-4F1B-450C-BFC0-53A45CD5E5C3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{4290AEC0-4F1B-450C-BFC0-53A45CD5E5C3}"/>
   </bookViews>
   <sheets>
     <sheet name="17-18" sheetId="1" r:id="rId1"/>
@@ -37,10 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="12">
-  <si>
-    <t>Socio-Demographic Characteristics by Region, Educational_attainment, Locality and Sex</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="11">
   <si>
     <t>Male</t>
   </si>
@@ -141,11 +138,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -483,8 +480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80B9AF0-E966-4931-AD5D-B18A0011E4C8}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A1:E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,27 +493,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" s="2">
         <v>67.099999999999994</v>
@@ -527,11 +524,11 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" s="2">
         <v>65.400000000000006</v>
@@ -542,11 +539,11 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" s="2">
         <v>17.100000000000001</v>
@@ -558,11 +555,11 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" s="2">
         <v>27.2</v>
@@ -574,11 +571,11 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" s="2">
         <v>30.8</v>
@@ -590,11 +587,11 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" s="2">
         <v>29.7</v>
@@ -606,11 +603,11 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" s="2">
         <v>10.9</v>
@@ -622,11 +619,11 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" s="2">
         <v>5.9</v>
@@ -638,11 +635,11 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" s="2">
         <v>8.3000000000000007</v>
@@ -654,11 +651,11 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" s="2">
         <v>2.6</v>
@@ -674,26 +671,23 @@
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F13" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="11">
     <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A15:E16"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
@@ -713,8 +707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEFE09AB-E29C-49E9-978F-7C968194DC44}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -726,27 +720,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" s="2">
         <v>66.976652776630559</v>
@@ -757,11 +751,11 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" s="2">
         <v>65.337094141449697</v>
@@ -772,11 +766,11 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" s="2">
         <v>17.344648538413118</v>
@@ -788,11 +782,11 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" s="2">
         <v>27.291661542802924</v>
@@ -804,11 +798,11 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" s="2">
         <v>31.176532579872458</v>
@@ -820,11 +814,11 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" s="2">
         <v>29.832882217582341</v>
@@ -836,11 +830,11 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" s="2">
         <v>10.996721647663996</v>
@@ -852,11 +846,11 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" s="2">
         <v>5.9593016357098998</v>
@@ -868,11 +862,11 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" s="2">
         <v>7.4587500106809905</v>
@@ -884,11 +878,11 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" s="2">
         <v>2.2532487453545436</v>
@@ -904,36 +898,33 @@
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F13" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A15:E16"/>
+  <mergeCells count="11">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/2017-2018 data set.xlsx
+++ b/2017-2018 data set.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nana Dom\IdeaProjects\A-Comparative-Statistical-Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{010CB8D2-3B1B-45E4-A892-CD842ACE29DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F3799AB-824B-4A64-9C84-6B77670C0654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{4290AEC0-4F1B-450C-BFC0-53A45CD5E5C3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="2" xr2:uid="{4290AEC0-4F1B-450C-BFC0-53A45CD5E5C3}"/>
   </bookViews>
   <sheets>
     <sheet name="17-18" sheetId="1" r:id="rId1"/>
     <sheet name="2024" sheetId="3" r:id="rId2"/>
+    <sheet name="2024-figures" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="12">
   <si>
     <t>Male</t>
   </si>
@@ -70,6 +71,9 @@
   </si>
   <si>
     <t>Locality</t>
+  </si>
+  <si>
+    <t>Education</t>
   </si>
 </sst>
 </file>
@@ -130,19 +134,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -480,8 +494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80B9AF0-E966-4931-AD5D-B18A0011E4C8}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:E16"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,10 +507,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="5"/>
+      <c r="B1" s="10"/>
       <c r="C1" s="3" t="s">
         <v>10</v>
       </c>
@@ -508,10 +522,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4"/>
+      <c r="B2" s="9"/>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
@@ -523,10 +537,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="9"/>
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
@@ -538,10 +552,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
@@ -554,10 +568,10 @@
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="4"/>
+      <c r="B5" s="9"/>
       <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
@@ -570,10 +584,10 @@
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4"/>
+      <c r="B6" s="9"/>
       <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
@@ -586,10 +600,10 @@
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="4"/>
+      <c r="B7" s="9"/>
       <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
@@ -602,10 +616,10 @@
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="4"/>
+      <c r="B8" s="9"/>
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -618,10 +632,10 @@
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="4"/>
+      <c r="B9" s="9"/>
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -634,10 +648,10 @@
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="4"/>
+      <c r="B10" s="9"/>
       <c r="C10" s="1" t="s">
         <v>3</v>
       </c>
@@ -650,10 +664,10 @@
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="4"/>
+      <c r="B11" s="9"/>
       <c r="C11" s="1" t="s">
         <v>4</v>
       </c>
@@ -672,18 +686,18 @@
       <c r="F13" s="2"/>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -720,10 +734,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="5"/>
+      <c r="B1" s="10"/>
       <c r="C1" s="3" t="s">
         <v>10</v>
       </c>
@@ -735,10 +749,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4"/>
+      <c r="B2" s="9"/>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
@@ -750,10 +764,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="9"/>
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
@@ -765,10 +779,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
@@ -781,10 +795,10 @@
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="4"/>
+      <c r="B5" s="9"/>
       <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
@@ -797,10 +811,10 @@
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4"/>
+      <c r="B6" s="9"/>
       <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
@@ -813,10 +827,10 @@
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="4"/>
+      <c r="B7" s="9"/>
       <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
@@ -829,10 +843,10 @@
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="4"/>
+      <c r="B8" s="9"/>
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -845,10 +859,10 @@
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="4"/>
+      <c r="B9" s="9"/>
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -861,10 +875,10 @@
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="4"/>
+      <c r="B10" s="9"/>
       <c r="C10" s="1" t="s">
         <v>3</v>
       </c>
@@ -877,10 +891,10 @@
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="4"/>
+      <c r="B11" s="9"/>
       <c r="C11" s="1" t="s">
         <v>4</v>
       </c>
@@ -899,33 +913,364 @@
       <c r="F13" s="2"/>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1E560E7-BB4D-4529-B98D-BDB38AC7A3C6}">
+  <dimension ref="A1:H38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="6">
+        <f>SUM(C4,C6,C8,C10)</f>
+        <v>470298</v>
+      </c>
+      <c r="D2" s="6">
+        <f>SUM(D4,D6,D8,D10)</f>
+        <v>231884</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="6">
+        <f>SUM(C5,C7,C9,C11)</f>
+        <v>1514244</v>
+      </c>
+      <c r="D3" s="6">
+        <f>SUM(D5,D7,D9,D11)</f>
+        <v>803343</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6">
+        <v>121791</v>
+      </c>
+      <c r="D4" s="6">
+        <v>90138</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="6">
+        <v>632508</v>
+      </c>
+      <c r="D5" s="6">
+        <v>439349</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="6">
+        <v>218916</v>
+      </c>
+      <c r="D6" s="6">
+        <v>114114</v>
+      </c>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="6">
+        <v>691403</v>
+      </c>
+      <c r="D7" s="6">
+        <v>324433</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="6">
+        <v>77217</v>
+      </c>
+      <c r="D8" s="6">
+        <v>19898</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="6">
+        <v>138112</v>
+      </c>
+      <c r="D9" s="6">
+        <v>32904</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="6">
+        <v>52374</v>
+      </c>
+      <c r="D10" s="6">
+        <v>7734</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="6">
+        <v>52221</v>
+      </c>
+      <c r="D11" s="6">
+        <v>6657</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>